--- a/Outputs/3. Prosumer percentage/Output Files/100/Output_4_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/100/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1202202.649009935</v>
+        <v>1161137.148579695</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797168</v>
+        <v>606553.2040797166</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>388.6855148454349</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -667,7 +667,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>100.6039668047028</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>116.0434079398612</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -876,7 +876,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>170.2098356895109</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -901,22 +901,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>92.65422886500977</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>218.3275307394733</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>29.18607610565394</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>102.7176563887149</v>
+        <v>427.8084003977384</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1299,7 +1299,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>35.20092700998642</v>
+        <v>182.0577076400746</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>21.87520451048285</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1435,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>342.5106299427092</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1624,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>175.0349193669808</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>145.83876749105</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>82.64119670414971</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>111.7936689725567</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2010,10 +2010,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>64.90507698037602</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2022,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>46.24876144511806</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H22" t="n">
-        <v>50.30825486907106</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>28.85560178398585</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>122.4914619056499</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2724,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>60.78001549303652</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>130.3463188443663</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>104.6302585404031</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>129.7139627068451</v>
+        <v>29.10461178738926</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3249,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3483,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>54.66258501924847</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49.17722654850338</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3720,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>193.1657375857779</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3745,10 +3745,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>19.66484339937177</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>17.5511538153596</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3903,22 +3903,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>50.05924486566805</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>33.28996520190795</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>271.7368624962564</v>
+        <v>354.5522175742578</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>281.6392935584448</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1052.900668210748</v>
+        <v>1270.561784452093</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.798599434575</v>
+        <v>1236.459715675921</v>
       </c>
       <c r="D2" t="n">
-        <v>582.8888146090196</v>
+        <v>800.5499308503653</v>
       </c>
       <c r="E2" t="n">
-        <v>481.2686461194208</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V2" t="n">
-        <v>2307.443876365254</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W2" t="n">
-        <v>2306.628825816691</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X2" t="n">
-        <v>1887.486362396002</v>
+        <v>1667.419135269041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1479.200238695656</v>
+        <v>1663.173415609098</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>877.921435116708</v>
       </c>
       <c r="C4" t="n">
-        <v>624.2616690759949</v>
+        <v>705.359723599933</v>
       </c>
       <c r="D4" t="n">
-        <v>624.2616690759949</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1814.577883601883</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1542.551479188174</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1297.159724521587</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1069.740053835695</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1331.865744460759</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C5" t="n">
-        <v>1297.763675684586</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D5" t="n">
-        <v>1204.173545517909</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
-        <v>770.3988006762045</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4573,13 +4573,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2586.408952615265</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>2586.408952615265</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>2181.553498026298</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X5" t="n">
-        <v>1762.411034605609</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1354.124910905262</v>
+        <v>1003.690796339813</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>900.7186013536161</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>900.7186013536161</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>734.8406085551388</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>565.0826048058761</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>388.3755507676324</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>222.78427579346</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H7" t="n">
-        <v>82.88210148383456</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2124.330557968361</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.375049838791</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1565.348645425083</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1319.956890758495</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1092.537220072603</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>648.8602641703436</v>
+        <v>573.6111384008032</v>
       </c>
       <c r="C8" t="n">
-        <v>210.7177913537669</v>
+        <v>539.5090696246305</v>
       </c>
       <c r="D8" t="n">
-        <v>106.9625828803175</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,25 +4807,25 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>801.8819313892766</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>801.8819313892766</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>801.8819313892766</v>
+        <v>518.3865980530361</v>
       </c>
       <c r="N8" t="n">
-        <v>801.8819313892766</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355598</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.159834655251</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>962.7013733912472</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
         <v>624.2616690759949</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2634.504334502149</v>
+        <v>2464.746330752886</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>2186.313330005992</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1899.357821876422</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1627.331417462714</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1381.939662796126</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1154.519992110234</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.363000055491</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
         <v>2082.266833883286</v>
@@ -5050,10 +5050,10 @@
         <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>3144.542240397635</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>3144.542240397635</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O11" t="n">
         <v>3144.542240397635</v>
@@ -5068,25 +5068,25 @@
         <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999558</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316574</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250401</v>
+        <v>4105.820788749547</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661434</v>
+        <v>3700.965334160581</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240745</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.662570540399</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8337724793113</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>119.8337724793113</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.376821290415</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.376821290415</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1074.376821290415</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1074.376821290415</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
         <v>1099.098144071247</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2519.992517327003</v>
+        <v>2408.082100998615</v>
       </c>
       <c r="C14" t="n">
-        <v>2081.850044510426</v>
+        <v>1969.939628182039</v>
       </c>
       <c r="D14" t="n">
-        <v>1645.940259684871</v>
+        <v>1534.029843356483</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.165514843166</v>
+        <v>1100.255098514778</v>
       </c>
       <c r="F14" t="n">
-        <v>784.2980852523735</v>
+        <v>672.387668923986</v>
       </c>
       <c r="G14" t="n">
-        <v>382.9002538756374</v>
+        <v>270.9898375472499</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
         <v>93.77009931885365</v>
@@ -5284,22 +5284,22 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1690.073296584033</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M14" t="n">
-        <v>2847.121131794584</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N14" t="n">
-        <v>3972.852115231031</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O14" t="n">
-        <v>3972.852115231031</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
         <v>4688.504965942682</v>
@@ -5311,19 +5311,19 @@
         <v>4688.504965942682</v>
       </c>
       <c r="U14" t="n">
-        <v>4541.193079588086</v>
+        <v>4429.282663259699</v>
       </c>
       <c r="V14" t="n">
-        <v>4178.576129521913</v>
+        <v>4066.665713193525</v>
       </c>
       <c r="W14" t="n">
-        <v>3773.720674932946</v>
+        <v>3661.810258604559</v>
       </c>
       <c r="X14" t="n">
-        <v>3354.578211512257</v>
+        <v>3242.66779518387</v>
       </c>
       <c r="Y14" t="n">
-        <v>2946.29208781191</v>
+        <v>2834.381671483523</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>1125.125617515901</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>1125.125617515901</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1125.125617515901</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1125.125617515901</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1216.270922165587</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
         <v>1757.009860797662</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2639367364659</v>
+        <v>911.6065991886352</v>
       </c>
       <c r="C16" t="n">
-        <v>630.7022252196908</v>
+        <v>911.6065991886352</v>
       </c>
       <c r="D16" t="n">
-        <v>517.7793272676133</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="E16" t="n">
-        <v>348.0213235183506</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F16" t="n">
-        <v>348.0213235183506</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G16" t="n">
-        <v>182.4300485441783</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I16" t="n">
         <v>93.77009931885365</v>
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5518,49 +5518,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>407.7542895545774</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2491.545339525313</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2213.112338778418</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="20">
@@ -5761,10 +5761,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3569.079287993934</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5779,7 +5779,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5828,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1003.573296407379</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>831.0115848906036</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>665.1335920921263</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>495.3755883428635</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>318.6685343046197</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
-        <v>153.0772593304474</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>448.0171411277256</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>271.3100870894817</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>271.3100870894817</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>131.4079127798562</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2595.191700773933</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2349.312254352388</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2070.879253605493</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1783.923745475924</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1511.897341062215</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6308,25 +6308,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6466,16 +6466,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
         <v>5113.04201353898</v>
@@ -6603,16 +6603,16 @@
         <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>507.5300178439736</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>507.5300178439736</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="F31" t="n">
-        <v>330.8229638057298</v>
+        <v>296.6079193348953</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>537.5155277236975</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>537.5155277236975</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>1694.563362934248</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2820.294346370695</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3800.474012941002</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4628.783887774398</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1083.7810821021</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C34" t="n">
-        <v>911.2193705853248</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="D34" t="n">
-        <v>745.3413777868475</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="E34" t="n">
-        <v>575.5833740375847</v>
+        <v>473.9577670482354</v>
       </c>
       <c r="F34" t="n">
-        <v>398.8763199993409</v>
+        <v>297.2507130099916</v>
       </c>
       <c r="G34" t="n">
-        <v>233.2850450251686</v>
+        <v>131.6594380358193</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1748.411126173566</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1503.019371506979</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1275.599700821087</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6940,22 +6940,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y40" t="n">
-        <v>1230.99296709327</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="41">
@@ -7393,7 +7393,7 @@
         <v>1666.220527238914</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.357049057731</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E41" t="n">
         <v>1212.582304216026</v>
@@ -7414,25 +7414,25 @@
         <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>1161.512116289769</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2236.572082542628</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>3393.619917753178</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>4519.350901189626</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>4519.350901189626</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P41" t="n">
-        <v>4519.350901189626</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
         <v>4688.504965942682</v>
@@ -7487,31 +7487,31 @@
         <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>596.6048817268487</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
         <v>1757.009860797662</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>941.0874841438413</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C43" t="n">
-        <v>768.5257726270662</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D43" t="n">
-        <v>602.6477798285889</v>
+        <v>580.1373314159857</v>
       </c>
       <c r="E43" t="n">
-        <v>432.8897760793262</v>
+        <v>410.3793276667229</v>
       </c>
       <c r="F43" t="n">
-        <v>432.8897760793262</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="G43" t="n">
-        <v>267.2985011051538</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H43" t="n">
-        <v>127.3963267955284</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
         <v>93.77009931885365</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2689.011887927025</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>2443.132441505481</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U43" t="n">
-        <v>2164.699440758586</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V43" t="n">
-        <v>1877.743932629016</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W43" t="n">
-        <v>1605.717528215308</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X43" t="n">
-        <v>1360.32577354872</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.906102862828</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055491</v>
+        <v>2188.014873871654</v>
       </c>
       <c r="C44" t="n">
-        <v>1666.220527238914</v>
+        <v>1749.872401055077</v>
       </c>
       <c r="D44" t="n">
-        <v>1230.310742413359</v>
+        <v>1313.962616229522</v>
       </c>
       <c r="E44" t="n">
-        <v>796.5359975716538</v>
+        <v>880.1878713878168</v>
       </c>
       <c r="F44" t="n">
-        <v>368.6685679808615</v>
+        <v>452.3204417970246</v>
       </c>
       <c r="G44" t="n">
         <v>94.18688869171365</v>
@@ -7675,25 +7675,25 @@
         <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999558</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316574</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250401</v>
+        <v>3846.598486066564</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661434</v>
+        <v>3441.743031477597</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240745</v>
+        <v>3022.600568056908</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.662570540399</v>
+        <v>2614.314444356562</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1084.16831070541</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C46" t="n">
-        <v>911.6065991886352</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D46" t="n">
-        <v>745.7286063901579</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E46" t="n">
-        <v>575.9706026408952</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F46" t="n">
-        <v>399.2635486026514</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>233.6722736284791</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H46" t="n">
         <v>93.77009931885365</v>
@@ -7833,25 +7833,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2551.18834051965</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2305.308894098105</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2305.308894098105</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>2020.824759190585</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1748.798354776877</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1503.406600110289</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.986929424397</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8145,7 +8145,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -8157,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8221,16 +8221,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8455,16 +8455,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>316.389926674475</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -8473,10 +8473,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>658.3613220306675</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,13 +8698,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>713.2395913281071</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8768,13 +8768,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>24.97103311195178</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8932,25 +8932,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>329.9981998526096</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,16 +9166,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802861</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9409,13 +9409,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,13 +9956,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10126,7 +10126,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10366,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>318.2869303146726</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10603,10 +10603,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11062,28 +11062,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>638.8760904222191</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>446.0407874304756</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>411.8858435779281</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>72.44040884377318</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>111.2039336442351</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>110.7913121651032</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>107.2592358276475</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>52.42554389793581</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>103.1553467313941</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>197.1718905122112</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
-        <v>88.19489769745817</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>58.91774794908556</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>35.15749310933337</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>114.1599680048248</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>33.8728940261262</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>59.30510368402751</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>8.789189859684171</v>
+        <v>109.39854077914</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>229.4233680290254</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.7232059832939</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>90.92021546249592</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>411.8858435779281</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>114.1599680048245</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>54.48338453116346</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>125.6469905667124</v>
+        <v>42.83163548871096</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,16 +26073,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.446659489829074</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>581537.1436265919</v>
+        <v>581537.143626592</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>581537.143626592</v>
+        <v>581537.1436265919</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620127.3956664938</v>
+        <v>620127.3956664939</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>620127.3956664938</v>
+        <v>620127.3956664939</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>581537.1436265919</v>
+        <v>581537.1436265918</v>
       </c>
     </row>
     <row r="16">
@@ -26316,13 +26316,13 @@
         <v>361899.4409260257</v>
       </c>
       <c r="C2" t="n">
+        <v>361899.4409260257</v>
+      </c>
+      <c r="D2" t="n">
         <v>361899.4409260256</v>
       </c>
-      <c r="D2" t="n">
-        <v>361899.4409260257</v>
-      </c>
       <c r="E2" t="n">
-        <v>333498.2429172706</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="F2" t="n">
         <v>333498.2429172707</v>
@@ -26331,7 +26331,7 @@
         <v>355628.8692927128</v>
       </c>
       <c r="H2" t="n">
-        <v>355628.8692927129</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="I2" t="n">
         <v>355628.8692927128</v>
@@ -26343,7 +26343,7 @@
         <v>355628.8692927128</v>
       </c>
       <c r="L2" t="n">
-        <v>355628.8692927127</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="M2" t="n">
         <v>355628.8692927128</v>
@@ -26352,7 +26352,7 @@
         <v>355628.8692927128</v>
       </c>
       <c r="O2" t="n">
-        <v>333498.2429172707</v>
+        <v>333498.2429172706</v>
       </c>
       <c r="P2" t="n">
         <v>333498.2429172707</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143739.7342216207</v>
+        <v>147081.7407966328</v>
       </c>
       <c r="C4" t="n">
-        <v>143739.7342216207</v>
+        <v>147081.7407966328</v>
       </c>
       <c r="D4" t="n">
-        <v>143739.7342216207</v>
+        <v>147081.7407966328</v>
       </c>
       <c r="E4" t="n">
-        <v>44927.65212585437</v>
+        <v>49810.06765182401</v>
       </c>
       <c r="F4" t="n">
-        <v>44927.65212585437</v>
+        <v>49810.06765182401</v>
       </c>
       <c r="G4" t="n">
-        <v>47909.00841254932</v>
+        <v>53115.41639158172</v>
       </c>
       <c r="H4" t="n">
-        <v>47909.00841254932</v>
+        <v>53115.41639158173</v>
       </c>
       <c r="I4" t="n">
-        <v>47909.00841254932</v>
+        <v>53115.41639158172</v>
       </c>
       <c r="J4" t="n">
-        <v>47909.00841254932</v>
+        <v>53115.41639158172</v>
       </c>
       <c r="K4" t="n">
-        <v>47909.00841254932</v>
+        <v>53115.41639158172</v>
       </c>
       <c r="L4" t="n">
-        <v>47909.00841254931</v>
+        <v>53115.41639158172</v>
       </c>
       <c r="M4" t="n">
-        <v>47909.00841254932</v>
+        <v>53115.41639158172</v>
       </c>
       <c r="N4" t="n">
-        <v>47909.00841254932</v>
+        <v>53115.41639158172</v>
       </c>
       <c r="O4" t="n">
-        <v>44927.65212585438</v>
+        <v>49810.06765182401</v>
       </c>
       <c r="P4" t="n">
-        <v>44927.65212585437</v>
+        <v>49810.06765182401</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-79752.51644139749</v>
+        <v>-83094.52301640958</v>
       </c>
       <c r="C6" t="n">
-        <v>143947.1821426472</v>
+        <v>140605.1755676352</v>
       </c>
       <c r="D6" t="n">
-        <v>143947.1821426473</v>
+        <v>140605.1755676352</v>
       </c>
       <c r="E6" t="n">
-        <v>66639.56173733964</v>
+        <v>60705.24998882363</v>
       </c>
       <c r="F6" t="n">
-        <v>217305.3153090876</v>
+        <v>211371.0035605714</v>
       </c>
       <c r="G6" t="n">
-        <v>200911.813101763</v>
+        <v>195473.1617289042</v>
       </c>
       <c r="H6" t="n">
-        <v>230001.622274371</v>
+        <v>224562.9709015122</v>
       </c>
       <c r="I6" t="n">
-        <v>230001.6222743709</v>
+        <v>224562.9709015121</v>
       </c>
       <c r="J6" t="n">
-        <v>55350.27355666482</v>
+        <v>49911.62218380599</v>
       </c>
       <c r="K6" t="n">
-        <v>230001.6222743709</v>
+        <v>224562.9709015121</v>
       </c>
       <c r="L6" t="n">
-        <v>230001.6222743709</v>
+        <v>224562.9709015121</v>
       </c>
       <c r="M6" t="n">
-        <v>104250.5339386803</v>
+        <v>98811.88256582154</v>
       </c>
       <c r="N6" t="n">
-        <v>230001.622274371</v>
+        <v>224562.9709015121</v>
       </c>
       <c r="O6" t="n">
-        <v>217305.3153090876</v>
+        <v>211371.0035605714</v>
       </c>
       <c r="P6" t="n">
-        <v>217305.3153090876</v>
+        <v>211371.0035605715</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>33.35105993462383</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>328.8330305885849</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>54.79268646174614</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>338.8964581122901</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>185.8757317238698</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>58.58727362741747</v>
+        <v>84.63380825304846</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>328.833030588585</v>
+        <v>3.742286579561494</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>208.2197249473429</v>
+        <v>61.36294431725472</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,16 +34941,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35175,16 +35175,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>316.389926674475</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -35193,10 +35193,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>658.3613220306675</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,13 +35418,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>713.2395913281071</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35488,13 +35488,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889937</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>24.97103311195178</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35652,25 +35652,25 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>329.9981998526096</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802861</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35965,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36129,13 +36129,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,10 +36843,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37086,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>318.2869303146726</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37624,7 +37624,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37782,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>638.8760904222191</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>446.0407874304756</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
